--- a/src/test/java/data/userData.xlsx
+++ b/src/test/java/data/userData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\SN\src\test\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\AGMEIS\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,10 +69,10 @@
     <t>Repaet password</t>
   </si>
   <si>
+    <t>FaridImranov92!!</t>
+  </si>
+  <si>
     <t>Rabbas88!!</t>
-  </si>
-  <si>
-    <t>FaridImranov92!!</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -384,26 +384,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
